--- a/medicine/Sexualité et sexologie/Sexcrimes___Partie_à_4/Sexcrimes___Partie_à_4.xlsx
+++ b/medicine/Sexualité et sexologie/Sexcrimes___Partie_à_4/Sexcrimes___Partie_à_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sexcrimes_:_Partie_%C3%A0_4</t>
+          <t>Sexcrimes_:_Partie_à_4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sexcrimes : Partie à 4 ou Les Racoleuses : Partie à 4 au Québec (Wild Things: Foursome) est un film américain sorti en 2010. C'est le quatrième volet de la saga entamée avec Sexcrimes (1998).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sexcrimes_:_Partie_%C3%A0_4</t>
+          <t>Sexcrimes_:_Partie_à_4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carson Weetly, jeune homme arrogant féru de fêtes en tous genres, soupçonne son richissime père d'avoir provoqué la mort de sa mère par ses multiples infidélités. Lorsque ce dernier meurt dans un accident de bateau, le détective Frank Walker est assigné à la tête de l'enquête. Plus ses recherches avancent, plus il soupçonne un complot autour du possible meurtre de la victime...
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sexcrimes_:_Partie_%C3%A0_4</t>
+          <t>Sexcrimes_:_Partie_à_4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Wild Things: Foursome
 Titre français : Sexcrimes : Partie à 4
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sexcrimes_:_Partie_%C3%A0_4</t>
+          <t>Sexcrimes_:_Partie_à_4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ashley Parker Angel : Carson Weetly
 Jillian Murray (VF : Julie Basecqz) : Brandi Cox
